--- a/biology/Botanique/Coste_della_Sesia_bianco/Coste_della_Sesia_bianco.xlsx
+++ b/biology/Botanique/Coste_della_Sesia_bianco/Coste_della_Sesia_bianco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Il Coste della Sesia bianco est un vin italien de la région Piémont dont les appellations sont dotées d'une appellation DOC depuis le 14 septembre 1996. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Biella et province de Verceil dans les communes de Lessona, Masserano, Brusnengo, Curino, Villa del Bosco, Sostegno, Cossato, Mottalciata, Candelo, Quaregna, Cerreto Castello, Valdengo et Vigliano Biellese.
 Les vignobles se situent sur les pentes qui surplombent la rive droite du cours d'eau de la Sesia.
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>couleur : jaune paille
 odeur : caractéristique, fin, intense
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,6 +622,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +649,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles 
